--- a/medicine/Sexualité et sexologie/Affaire_Pierre-Étienne_Albert/Affaire_Pierre-Étienne_Albert.xlsx
+++ b/medicine/Sexualité et sexologie/Affaire_Pierre-Étienne_Albert/Affaire_Pierre-Étienne_Albert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affaire_Pierre-%C3%89tienne_Albert</t>
+          <t>Affaire_Pierre-Étienne_Albert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'affaire Pierre-Étienne Albert est une affaire judiciaire mettant en cause Pierre-Étienne Albert, membre de la communauté des Béatitudes, accusé d'avoir agressé sexuellement 39 enfants entre 1985 et 2000. Celui-ci reconnait l'ensemble des agressions sexuelles et donne le nom d'autres victimes pour lesquelles le tribunal ne peut statuer car les faits sont prescrits. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affaire_Pierre-%C3%89tienne_Albert</t>
+          <t>Affaire_Pierre-Étienne_Albert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,17 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre-Étienne Albert est entré dans la communauté des Béatitudes à l'âge de 25 ans[1]. Cette communauté catholique est née en France en 1973. Elle rassemble des  sœurs et des frères consacrés, dont des prêtres, ainsi que des fidèles laïcs (célibataires, couples et diacres permanents) partageant offices liturgiques, vie fraternelle et mission. Compositeur de chants et de musiques pour la communauté, Pierre-Étienne Albert l'occasion de se déplacer dans les différents centres de la communauté[1].
-Une première plainte est déposée à Avranches, en 2001, à la suite d’un signalement de l'aide sociale à l'enfance. L’instruction conduit à un non-lieu pour prescription concernant une victime et incompétence territoriale pour une quinzaine d'autres victimes[2].
-Murielle Gauthier intègre la communauté des Béatitudes, avec sa famille, en 2000, au sein de l'Abbaye Notre-Dame de Bonnecombe à Comps-la-Grand-Ville située dans l'Aveyron. Côtoyant le frère Pierre-Étienne Albert, elle se doute de son comportement à l'égard des enfants et lui demande de se confier. Ce qu'il fait rapidement en relatant, par écrit, ses agressions et le nom des victimes. En août 2007, elle contacte le procureur d'Albi pour l'informer des agissements du frère[3]. À la suite de cette dénonciation, la communauté se scinde à l'abbaye Notre-Dame de Bonnecombe, Murielle et quelques proches ont dénoncé, outre les agressions du frère pédophile, des dérives sectaires de la communauté des Béatitudes. Se sentant mis à l'écart par la communauté, ils donnent leur démission de celle-ci en 2009[4]. 
-En février 2008, Pierre-Étienne Albert reconnaît publiquement, dans l'émission Devoir d'enquête diffusée sur la Radio-télévision belge de la Communauté française, avoir abusé sexuellement de plusieurs enfants : « Je l'ai fait pour les victimes, pour mes victimes pour qu'elles soient reconnues comme victimes mais aussi pour la paix de ma conscience »[5]. 
-Pierre-Étienne Albert est mis en examen le 5 février 2008[6]. Pendant son procès en 2011, il indique avoir abusé sexuellement de 57 enfants dont il donne les noms. Il reconnaît des attouchements, des caresses et des baisers[1]. Toutefois, certains faits étant prescrits, il est jugé « seulement » pour 38 agressions sexuelles sur des enfants, filles et garçons, âgés de 5 à 14 ans, entre 1985 et 2000[7].
-La connaissance des agressions par les responsables de la communauté est évoquée lors du procès. Pierre-Étienne Albert indique s'être confié à eux. Or ces derniers, Gérard Croissant, Philippe Madre, Fernand Sanchez et François-Xavier Wallays, n'ont pas dénoncé les faits à la justice. Le président du tribunal, s'exprimant sur leurs témoignages, évoque un « festival de la patate chaude ». Mais ils ne sont pas poursuivis pour non-dénonciation d’atteintes sexuelles les faits étant prescrits les concernant[2],[8],[9].
-En octobre 2015, Pierre-Étienne Albert comparait de nouveau devant la justice. Une nouvelle victime s'est fait connaître. Elle indique avoir été agressée par le frère alors qu'elle avait 12 ans en 1996. Pierre-Étienne Albert reconnaît les faits : « ce que j'ai fait est monstrueux ». Il est condamné à trois mois de prison avec confusion des peines. Par ailleurs, il doit dédommager la victime à hauteur de 2 000 euros[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-Étienne Albert est entré dans la communauté des Béatitudes à l'âge de 25 ans. Cette communauté catholique est née en France en 1973. Elle rassemble des  sœurs et des frères consacrés, dont des prêtres, ainsi que des fidèles laïcs (célibataires, couples et diacres permanents) partageant offices liturgiques, vie fraternelle et mission. Compositeur de chants et de musiques pour la communauté, Pierre-Étienne Albert l'occasion de se déplacer dans les différents centres de la communauté.
+Une première plainte est déposée à Avranches, en 2001, à la suite d’un signalement de l'aide sociale à l'enfance. L’instruction conduit à un non-lieu pour prescription concernant une victime et incompétence territoriale pour une quinzaine d'autres victimes.
+Murielle Gauthier intègre la communauté des Béatitudes, avec sa famille, en 2000, au sein de l'Abbaye Notre-Dame de Bonnecombe à Comps-la-Grand-Ville située dans l'Aveyron. Côtoyant le frère Pierre-Étienne Albert, elle se doute de son comportement à l'égard des enfants et lui demande de se confier. Ce qu'il fait rapidement en relatant, par écrit, ses agressions et le nom des victimes. En août 2007, elle contacte le procureur d'Albi pour l'informer des agissements du frère. À la suite de cette dénonciation, la communauté se scinde à l'abbaye Notre-Dame de Bonnecombe, Murielle et quelques proches ont dénoncé, outre les agressions du frère pédophile, des dérives sectaires de la communauté des Béatitudes. Se sentant mis à l'écart par la communauté, ils donnent leur démission de celle-ci en 2009. 
+En février 2008, Pierre-Étienne Albert reconnaît publiquement, dans l'émission Devoir d'enquête diffusée sur la Radio-télévision belge de la Communauté française, avoir abusé sexuellement de plusieurs enfants : « Je l'ai fait pour les victimes, pour mes victimes pour qu'elles soient reconnues comme victimes mais aussi pour la paix de ma conscience ». 
+Pierre-Étienne Albert est mis en examen le 5 février 2008. Pendant son procès en 2011, il indique avoir abusé sexuellement de 57 enfants dont il donne les noms. Il reconnaît des attouchements, des caresses et des baisers. Toutefois, certains faits étant prescrits, il est jugé « seulement » pour 38 agressions sexuelles sur des enfants, filles et garçons, âgés de 5 à 14 ans, entre 1985 et 2000.
+La connaissance des agressions par les responsables de la communauté est évoquée lors du procès. Pierre-Étienne Albert indique s'être confié à eux. Or ces derniers, Gérard Croissant, Philippe Madre, Fernand Sanchez et François-Xavier Wallays, n'ont pas dénoncé les faits à la justice. Le président du tribunal, s'exprimant sur leurs témoignages, évoque un « festival de la patate chaude ». Mais ils ne sont pas poursuivis pour non-dénonciation d’atteintes sexuelles les faits étant prescrits les concernant.
+En octobre 2015, Pierre-Étienne Albert comparait de nouveau devant la justice. Une nouvelle victime s'est fait connaître. Elle indique avoir été agressée par le frère alors qu'elle avait 12 ans en 1996. Pierre-Étienne Albert reconnaît les faits : « ce que j'ai fait est monstrueux ». Il est condamné à trois mois de prison avec confusion des peines. Par ailleurs, il doit dédommager la victime à hauteur de 2 000 euros.
 </t>
         </is>
       </c>
